--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8235" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8235" uniqueCount="824">
   <si>
     <t>Property</t>
   </si>
@@ -1568,9 +1568,6 @@
   </si>
   <si>
     <t>Observation.bodySite.coding.system</t>
-  </si>
-  <si>
-    <t>http://hl7.no/fhir/ValueSet/no-bloodpressurebodysite-valueset</t>
   </si>
   <si>
     <t>Observation.bodySite.coding.version</t>
@@ -11678,7 +11675,7 @@
       </c>
       <c r="Y73" s="2"/>
       <c r="Z73" t="s" s="2">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>80</v>
@@ -11731,10 +11728,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11851,10 +11848,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11971,10 +11968,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -12091,10 +12088,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -12213,10 +12210,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12335,10 +12332,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12364,16 +12361,16 @@
         <v>223</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="N79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>80</v>
@@ -12398,14 +12395,14 @@
         <v>80</v>
       </c>
       <c r="X79" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="Y79" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="Y79" t="s" s="2">
+      <c r="Z79" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="Z79" t="s" s="2">
-        <v>510</v>
-      </c>
       <c r="AA79" t="s" s="2">
         <v>80</v>
       </c>
@@ -12422,7 +12419,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -12443,10 +12440,10 @@
         <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AN79" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>80</v>
@@ -12457,10 +12454,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12483,16 +12480,16 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -12542,7 +12539,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -12560,27 +12557,27 @@
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="AM80" t="s" s="2">
+      <c r="AN80" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="AN80" t="s" s="2">
+      <c r="AO80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP80" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP80" t="s" s="2">
-        <v>521</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12603,16 +12600,16 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -12662,7 +12659,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -12680,27 +12677,27 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="AM81" t="s" s="2">
+      <c r="AN81" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="AN81" t="s" s="2">
+      <c r="AO81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP81" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP81" t="s" s="2">
-        <v>530</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12723,19 +12720,19 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="N82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>80</v>
@@ -12784,7 +12781,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -12796,19 +12793,19 @@
         <v>80</v>
       </c>
       <c r="AJ82" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="AK82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM82" t="s" s="2">
+      <c r="AN82" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
@@ -12819,10 +12816,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12937,10 +12934,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -13057,14 +13054,14 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -13086,10 +13083,10 @@
         <v>136</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="N85" t="s" s="2">
         <v>180</v>
@@ -13144,7 +13141,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -13179,10 +13176,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13205,13 +13202,13 @@
         <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -13262,7 +13259,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -13271,7 +13268,7 @@
         <v>91</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>103</v>
@@ -13283,10 +13280,10 @@
         <v>80</v>
       </c>
       <c r="AM86" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AN86" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>80</v>
@@ -13297,10 +13294,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13323,13 +13320,13 @@
         <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -13380,7 +13377,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -13389,7 +13386,7 @@
         <v>91</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>103</v>
@@ -13401,10 +13398,10 @@
         <v>80</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>80</v>
@@ -13415,10 +13412,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13444,16 +13441,16 @@
         <v>223</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="N88" t="s" s="2">
+      <c r="O88" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>80</v>
@@ -13481,11 +13478,11 @@
         <v>115</v>
       </c>
       <c r="Y88" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="Z88" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="Z88" t="s" s="2">
-        <v>564</v>
-      </c>
       <c r="AA88" t="s" s="2">
         <v>80</v>
       </c>
@@ -13502,7 +13499,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -13520,10 +13517,10 @@
         <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AM88" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>451</v>
@@ -13537,10 +13534,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13566,16 +13563,16 @@
         <v>223</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="N89" t="s" s="2">
+      <c r="O89" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>80</v>
@@ -13600,14 +13597,14 @@
         <v>80</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Y89" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="Z89" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="Z89" t="s" s="2">
-        <v>573</v>
-      </c>
       <c r="AA89" t="s" s="2">
         <v>80</v>
       </c>
@@ -13624,7 +13621,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -13642,10 +13639,10 @@
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AM89" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>451</v>
@@ -13659,10 +13656,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13685,17 +13682,17 @@
         <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>80</v>
@@ -13744,7 +13741,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -13768,7 +13765,7 @@
         <v>80</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>80</v>
@@ -13779,10 +13776,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13808,10 +13805,10 @@
         <v>237</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -13862,7 +13859,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -13883,10 +13880,10 @@
         <v>80</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>80</v>
@@ -13897,10 +13894,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13923,16 +13920,16 @@
         <v>92</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13982,7 +13979,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -14003,10 +14000,10 @@
         <v>80</v>
       </c>
       <c r="AM92" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AN92" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>80</v>
@@ -14017,10 +14014,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -14043,16 +14040,16 @@
         <v>92</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -14102,7 +14099,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -14123,10 +14120,10 @@
         <v>80</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>80</v>
@@ -14137,10 +14134,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -14148,7 +14145,7 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>79</v>
@@ -14163,19 +14160,19 @@
         <v>92</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="N94" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="M94" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -14212,7 +14209,7 @@
         <v>80</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AC94" s="2"/>
       <c r="AD94" t="s" s="2">
@@ -14222,7 +14219,7 @@
         <v>140</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -14234,19 +14231,19 @@
         <v>80</v>
       </c>
       <c r="AJ94" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM94" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="AK94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM94" t="s" s="2">
+      <c r="AN94" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>80</v>
@@ -14257,10 +14254,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14375,10 +14372,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14495,14 +14492,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -14524,10 +14521,10 @@
         <v>136</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="N97" t="s" s="2">
         <v>180</v>
@@ -14582,7 +14579,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -14617,10 +14614,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14646,16 +14643,16 @@
         <v>223</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="N98" t="s" s="2">
+      <c r="O98" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>80</v>
@@ -14704,7 +14701,7 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>91</v>
@@ -14722,7 +14719,7 @@
         <v>80</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>327</v>
@@ -14739,10 +14736,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14765,16 +14762,16 @@
         <v>92</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="L99" t="s" s="2">
+      <c r="M99" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>422</v>
@@ -14805,37 +14802,37 @@
         <v>215</v>
       </c>
       <c r="Y99" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="Z99" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="Z99" t="s" s="2">
+      <c r="AA99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI99" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>103</v>
@@ -14844,7 +14841,7 @@
         <v>80</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>427</v>
@@ -14861,10 +14858,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14890,13 +14887,13 @@
         <v>223</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>627</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>436</v>
@@ -14948,7 +14945,7 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -14957,7 +14954,7 @@
         <v>91</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>103</v>
@@ -14983,10 +14980,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -15070,7 +15067,7 @@
         <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -15105,10 +15102,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15134,16 +15131,16 @@
         <v>81</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="M102" t="s" s="2">
-        <v>632</v>
-      </c>
       <c r="N102" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="O102" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>80</v>
@@ -15192,7 +15189,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -15213,10 +15210,10 @@
         <v>80</v>
       </c>
       <c r="AM102" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AN102" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>80</v>
@@ -15227,13 +15224,13 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="C103" t="s" s="2">
         <v>633</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="C103" t="s" s="2">
-        <v>634</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>80</v>
@@ -15255,19 +15252,19 @@
         <v>92</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="N103" t="s" s="2">
         <v>635</v>
       </c>
-      <c r="M103" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>636</v>
-      </c>
       <c r="O103" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>80</v>
@@ -15316,7 +15313,7 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -15328,19 +15325,19 @@
         <v>80</v>
       </c>
       <c r="AJ103" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM103" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="AK103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM103" t="s" s="2">
+      <c r="AN103" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>80</v>
@@ -15351,10 +15348,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15469,10 +15466,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15589,14 +15586,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -15618,10 +15615,10 @@
         <v>136</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="N106" t="s" s="2">
         <v>180</v>
@@ -15676,7 +15673,7 @@
         <v>80</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
@@ -15711,14 +15708,14 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -15740,16 +15737,16 @@
         <v>223</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="N107" t="s" s="2">
         <v>320</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>80</v>
@@ -15798,7 +15795,7 @@
         <v>80</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>91</v>
@@ -15816,7 +15813,7 @@
         <v>80</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>327</v>
@@ -15833,10 +15830,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="B108" t="s" s="2">
         <v>642</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15951,10 +15948,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="B109" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>645</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -16071,10 +16068,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="B110" t="s" s="2">
         <v>646</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>647</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16100,10 +16097,10 @@
         <v>250</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="N110" t="s" s="2">
         <v>253</v>
@@ -16191,13 +16188,13 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="C111" t="s" s="2">
         <v>650</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="C111" t="s" s="2">
-        <v>651</v>
       </c>
       <c r="D111" t="s" s="2">
         <v>80</v>
@@ -16222,10 +16219,10 @@
         <v>250</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="N111" t="s" s="2">
         <v>253</v>
@@ -16315,10 +16312,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="B112" t="s" s="2">
         <v>652</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>653</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16433,10 +16430,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="B113" t="s" s="2">
         <v>654</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>655</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16553,10 +16550,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="B114" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16675,10 +16672,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="B115" t="s" s="2">
         <v>658</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>659</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16795,10 +16792,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="B116" t="s" s="2">
         <v>660</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>661</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16838,7 +16835,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>80</v>
@@ -16915,10 +16912,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="B117" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>664</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -17035,10 +17032,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="B118" t="s" s="2">
         <v>665</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>666</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -17157,10 +17154,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="B119" t="s" s="2">
         <v>667</v>
-      </c>
-      <c r="B119" t="s" s="2">
-        <v>668</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17279,10 +17276,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17308,13 +17305,13 @@
         <v>419</v>
       </c>
       <c r="L120" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="M120" t="s" s="2">
+      <c r="N120" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>422</v>
@@ -17345,37 +17342,37 @@
         <v>215</v>
       </c>
       <c r="Y120" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="Z120" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="Z120" t="s" s="2">
+      <c r="AA120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI120" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>103</v>
@@ -17384,7 +17381,7 @@
         <v>80</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>427</v>
@@ -17401,10 +17398,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="B121" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="B121" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17519,10 +17516,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="B122" t="s" s="2">
         <v>672</v>
-      </c>
-      <c r="B122" t="s" s="2">
-        <v>673</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17639,10 +17636,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B123" t="s" s="2">
         <v>674</v>
-      </c>
-      <c r="B123" t="s" s="2">
-        <v>675</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17665,19 +17662,19 @@
         <v>92</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="L123" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="L123" t="s" s="2">
+      <c r="M123" t="s" s="2">
         <v>677</v>
       </c>
-      <c r="M123" t="s" s="2">
+      <c r="N123" t="s" s="2">
         <v>678</v>
       </c>
-      <c r="N123" t="s" s="2">
+      <c r="O123" t="s" s="2">
         <v>679</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>680</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>80</v>
@@ -17726,7 +17723,7 @@
         <v>80</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>78</v>
@@ -17747,10 +17744,10 @@
         <v>80</v>
       </c>
       <c r="AM123" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AN123" t="s" s="2">
         <v>682</v>
-      </c>
-      <c r="AN123" t="s" s="2">
-        <v>683</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>80</v>
@@ -17761,10 +17758,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="B124" t="s" s="2">
         <v>684</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>685</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17790,20 +17787,20 @@
         <v>111</v>
       </c>
       <c r="L124" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="M124" t="s" s="2">
         <v>686</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>687</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="P124" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q124" t="s" s="2">
         <v>688</v>
-      </c>
-      <c r="P124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q124" t="s" s="2">
-        <v>689</v>
       </c>
       <c r="R124" t="s" s="2">
         <v>80</v>
@@ -17827,28 +17824,28 @@
         <v>215</v>
       </c>
       <c r="Y124" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="Z124" t="s" s="2">
         <v>690</v>
       </c>
-      <c r="Z124" t="s" s="2">
+      <c r="AA124" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF124" t="s" s="2">
         <v>691</v>
-      </c>
-      <c r="AA124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF124" t="s" s="2">
-        <v>692</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>78</v>
@@ -17869,10 +17866,10 @@
         <v>80</v>
       </c>
       <c r="AM124" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="AN124" t="s" s="2">
         <v>693</v>
-      </c>
-      <c r="AN124" t="s" s="2">
-        <v>694</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>80</v>
@@ -17883,10 +17880,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="B125" t="s" s="2">
         <v>695</v>
-      </c>
-      <c r="B125" t="s" s="2">
-        <v>696</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17912,14 +17909,14 @@
         <v>237</v>
       </c>
       <c r="L125" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="M125" t="s" s="2">
         <v>697</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>698</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>80</v>
@@ -17968,7 +17965,7 @@
         <v>80</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>78</v>
@@ -17989,10 +17986,10 @@
         <v>80</v>
       </c>
       <c r="AM125" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="AN125" t="s" s="2">
         <v>701</v>
-      </c>
-      <c r="AN125" t="s" s="2">
-        <v>702</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>80</v>
@@ -18003,10 +18000,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="B126" t="s" s="2">
         <v>703</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>704</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -18032,72 +18029,72 @@
         <v>105</v>
       </c>
       <c r="L126" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="M126" t="s" s="2">
         <v>705</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>706</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="S126" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF126" t="s" s="2">
         <v>708</v>
       </c>
-      <c r="S126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF126" t="s" s="2">
+      <c r="AG126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI126" t="s" s="2">
         <v>709</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>710</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>103</v>
@@ -18109,10 +18106,10 @@
         <v>80</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>80</v>
@@ -18123,10 +18120,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="B127" t="s" s="2">
         <v>712</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>713</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18152,65 +18149,65 @@
         <v>111</v>
       </c>
       <c r="L127" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="N127" t="s" s="2">
         <v>714</v>
       </c>
-      <c r="M127" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="N127" t="s" s="2">
+      <c r="O127" t="s" s="2">
         <v>715</v>
-      </c>
-      <c r="O127" t="s" s="2">
-        <v>716</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q127" s="2"/>
       <c r="R127" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="S127" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF127" t="s" s="2">
         <v>717</v>
-      </c>
-      <c r="S127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF127" t="s" s="2">
-        <v>718</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>78</v>
@@ -18231,10 +18228,10 @@
         <v>80</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>80</v>
@@ -18245,10 +18242,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18274,13 +18271,13 @@
         <v>223</v>
       </c>
       <c r="L128" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="M128" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="M128" t="s" s="2">
+      <c r="N128" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>627</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>436</v>
@@ -18332,7 +18329,7 @@
         <v>80</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>78</v>
@@ -18341,7 +18338,7 @@
         <v>91</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>103</v>
@@ -18367,10 +18364,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18454,7 +18451,7 @@
         <v>80</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>78</v>
@@ -18489,10 +18486,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18518,16 +18515,16 @@
         <v>81</v>
       </c>
       <c r="L130" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="M130" t="s" s="2">
-        <v>632</v>
-      </c>
       <c r="N130" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="O130" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>80</v>
@@ -18576,7 +18573,7 @@
         <v>80</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>78</v>
@@ -18597,10 +18594,10 @@
         <v>80</v>
       </c>
       <c r="AM130" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AN130" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>80</v>
@@ -18611,13 +18608,13 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="C131" t="s" s="2">
         <v>723</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="C131" t="s" s="2">
-        <v>724</v>
       </c>
       <c r="D131" t="s" s="2">
         <v>80</v>
@@ -18639,19 +18636,19 @@
         <v>92</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>80</v>
@@ -18700,7 +18697,7 @@
         <v>80</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>78</v>
@@ -18712,19 +18709,19 @@
         <v>80</v>
       </c>
       <c r="AJ131" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AK131" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL131" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM131" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="AK131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM131" t="s" s="2">
+      <c r="AN131" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="AN131" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="AO131" t="s" s="2">
         <v>80</v>
@@ -18735,10 +18732,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18853,10 +18850,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18973,14 +18970,14 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
@@ -19002,10 +18999,10 @@
         <v>136</v>
       </c>
       <c r="L134" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M134" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="N134" t="s" s="2">
         <v>180</v>
@@ -19060,7 +19057,7 @@
         <v>80</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>78</v>
@@ -19095,10 +19092,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -19124,16 +19121,16 @@
         <v>223</v>
       </c>
       <c r="L135" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="N135" t="s" s="2">
         <v>320</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>80</v>
@@ -19182,7 +19179,7 @@
         <v>80</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>91</v>
@@ -19200,7 +19197,7 @@
         <v>80</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>327</v>
@@ -19217,10 +19214,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19335,10 +19332,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19455,10 +19452,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19484,10 +19481,10 @@
         <v>250</v>
       </c>
       <c r="L138" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="M138" t="s" s="2">
         <v>733</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>734</v>
       </c>
       <c r="N138" t="s" s="2">
         <v>253</v>
@@ -19575,13 +19572,13 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="B139" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="C139" t="s" s="2">
         <v>735</v>
-      </c>
-      <c r="B139" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="C139" t="s" s="2">
-        <v>736</v>
       </c>
       <c r="D139" t="s" s="2">
         <v>80</v>
@@ -19606,10 +19603,10 @@
         <v>250</v>
       </c>
       <c r="L139" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="M139" t="s" s="2">
         <v>733</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>734</v>
       </c>
       <c r="N139" t="s" s="2">
         <v>253</v>
@@ -19699,10 +19696,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19817,10 +19814,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19937,10 +19934,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -20059,10 +20056,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20179,10 +20176,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20222,7 +20219,7 @@
       </c>
       <c r="Q144" s="2"/>
       <c r="R144" t="s" s="2">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="S144" t="s" s="2">
         <v>80</v>
@@ -20299,10 +20296,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20419,10 +20416,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20541,10 +20538,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20663,10 +20660,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20692,13 +20689,13 @@
         <v>419</v>
       </c>
       <c r="L148" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="M148" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="M148" t="s" s="2">
+      <c r="N148" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>422</v>
@@ -20729,37 +20726,37 @@
         <v>215</v>
       </c>
       <c r="Y148" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="Z148" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="Z148" t="s" s="2">
+      <c r="AA148" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB148" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC148" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD148" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE148" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF148" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AG148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH148" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI148" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="AA148" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB148" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC148" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD148" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE148" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF148" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="AG148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH148" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI148" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>103</v>
@@ -20768,7 +20765,7 @@
         <v>80</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AM148" t="s" s="2">
         <v>427</v>
@@ -20785,10 +20782,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20903,10 +20900,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -21023,10 +21020,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21049,19 +21046,19 @@
         <v>92</v>
       </c>
       <c r="K151" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="L151" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="L151" t="s" s="2">
+      <c r="M151" t="s" s="2">
         <v>677</v>
       </c>
-      <c r="M151" t="s" s="2">
+      <c r="N151" t="s" s="2">
         <v>678</v>
       </c>
-      <c r="N151" t="s" s="2">
+      <c r="O151" t="s" s="2">
         <v>679</v>
-      </c>
-      <c r="O151" t="s" s="2">
-        <v>680</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>80</v>
@@ -21110,7 +21107,7 @@
         <v>80</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>78</v>
@@ -21131,10 +21128,10 @@
         <v>80</v>
       </c>
       <c r="AM151" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AN151" t="s" s="2">
         <v>682</v>
-      </c>
-      <c r="AN151" t="s" s="2">
-        <v>683</v>
       </c>
       <c r="AO151" t="s" s="2">
         <v>80</v>
@@ -21145,10 +21142,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21174,20 +21171,20 @@
         <v>111</v>
       </c>
       <c r="L152" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="M152" t="s" s="2">
         <v>686</v>
-      </c>
-      <c r="M152" t="s" s="2">
-        <v>687</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="P152" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q152" t="s" s="2">
         <v>688</v>
-      </c>
-      <c r="P152" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q152" t="s" s="2">
-        <v>689</v>
       </c>
       <c r="R152" t="s" s="2">
         <v>80</v>
@@ -21211,28 +21208,28 @@
         <v>215</v>
       </c>
       <c r="Y152" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="Z152" t="s" s="2">
         <v>690</v>
       </c>
-      <c r="Z152" t="s" s="2">
+      <c r="AA152" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB152" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC152" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD152" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE152" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF152" t="s" s="2">
         <v>691</v>
-      </c>
-      <c r="AA152" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB152" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC152" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD152" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE152" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF152" t="s" s="2">
-        <v>692</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>78</v>
@@ -21253,10 +21250,10 @@
         <v>80</v>
       </c>
       <c r="AM152" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="AN152" t="s" s="2">
         <v>693</v>
-      </c>
-      <c r="AN152" t="s" s="2">
-        <v>694</v>
       </c>
       <c r="AO152" t="s" s="2">
         <v>80</v>
@@ -21267,10 +21264,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21296,14 +21293,14 @@
         <v>237</v>
       </c>
       <c r="L153" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="M153" t="s" s="2">
         <v>697</v>
-      </c>
-      <c r="M153" t="s" s="2">
-        <v>698</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>80</v>
@@ -21352,7 +21349,7 @@
         <v>80</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>78</v>
@@ -21373,10 +21370,10 @@
         <v>80</v>
       </c>
       <c r="AM153" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="AN153" t="s" s="2">
         <v>701</v>
-      </c>
-      <c r="AN153" t="s" s="2">
-        <v>702</v>
       </c>
       <c r="AO153" t="s" s="2">
         <v>80</v>
@@ -21387,10 +21384,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21416,72 +21413,72 @@
         <v>105</v>
       </c>
       <c r="L154" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="M154" t="s" s="2">
         <v>705</v>
-      </c>
-      <c r="M154" t="s" s="2">
-        <v>706</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q154" s="2"/>
       <c r="R154" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="S154" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T154" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U154" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V154" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W154" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X154" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y154" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z154" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA154" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB154" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC154" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD154" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE154" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF154" t="s" s="2">
         <v>708</v>
       </c>
-      <c r="S154" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T154" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U154" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V154" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W154" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X154" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y154" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z154" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA154" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB154" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC154" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD154" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE154" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF154" t="s" s="2">
+      <c r="AG154" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH154" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI154" t="s" s="2">
         <v>709</v>
-      </c>
-      <c r="AG154" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH154" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI154" t="s" s="2">
-        <v>710</v>
       </c>
       <c r="AJ154" t="s" s="2">
         <v>103</v>
@@ -21493,10 +21490,10 @@
         <v>80</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AN154" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AO154" t="s" s="2">
         <v>80</v>
@@ -21507,10 +21504,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21536,65 +21533,65 @@
         <v>111</v>
       </c>
       <c r="L155" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="N155" t="s" s="2">
         <v>714</v>
       </c>
-      <c r="M155" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="N155" t="s" s="2">
+      <c r="O155" t="s" s="2">
         <v>715</v>
-      </c>
-      <c r="O155" t="s" s="2">
-        <v>716</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q155" s="2"/>
       <c r="R155" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="S155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE155" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF155" t="s" s="2">
         <v>717</v>
-      </c>
-      <c r="S155" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T155" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U155" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V155" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W155" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X155" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y155" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z155" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA155" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB155" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC155" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD155" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE155" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF155" t="s" s="2">
-        <v>718</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>78</v>
@@ -21615,10 +21612,10 @@
         <v>80</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AN155" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AO155" t="s" s="2">
         <v>80</v>
@@ -21629,10 +21626,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21658,13 +21655,13 @@
         <v>223</v>
       </c>
       <c r="L156" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="M156" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="M156" t="s" s="2">
+      <c r="N156" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>627</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>436</v>
@@ -21716,7 +21713,7 @@
         <v>80</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>78</v>
@@ -21725,7 +21722,7 @@
         <v>91</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>103</v>
@@ -21751,10 +21748,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21838,7 +21835,7 @@
         <v>80</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>78</v>
@@ -21873,10 +21870,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21902,16 +21899,16 @@
         <v>81</v>
       </c>
       <c r="L158" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="M158" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="M158" t="s" s="2">
-        <v>632</v>
-      </c>
       <c r="N158" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="O158" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="O158" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>80</v>
@@ -21960,7 +21957,7 @@
         <v>80</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>78</v>
@@ -21981,10 +21978,10 @@
         <v>80</v>
       </c>
       <c r="AM158" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AN158" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="AN158" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="AO158" t="s" s="2">
         <v>80</v>
@@ -21995,13 +21992,13 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="B159" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="C159" t="s" s="2">
         <v>757</v>
-      </c>
-      <c r="B159" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="C159" t="s" s="2">
-        <v>758</v>
       </c>
       <c r="D159" t="s" s="2">
         <v>80</v>
@@ -22023,19 +22020,19 @@
         <v>92</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="O159" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>80</v>
@@ -22084,7 +22081,7 @@
         <v>80</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>78</v>
@@ -22096,19 +22093,19 @@
         <v>80</v>
       </c>
       <c r="AJ159" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AK159" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL159" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM159" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="AK159" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL159" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM159" t="s" s="2">
+      <c r="AN159" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="AN159" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="AO159" t="s" s="2">
         <v>80</v>
@@ -22119,10 +22116,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22237,10 +22234,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22357,14 +22354,14 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" t="s" s="2">
@@ -22386,10 +22383,10 @@
         <v>136</v>
       </c>
       <c r="L162" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M162" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="N162" t="s" s="2">
         <v>180</v>
@@ -22444,7 +22441,7 @@
         <v>80</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>78</v>
@@ -22479,14 +22476,14 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163" t="s" s="2">
@@ -22508,16 +22505,16 @@
         <v>223</v>
       </c>
       <c r="L163" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M163" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="M163" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="N163" t="s" s="2">
         <v>320</v>
       </c>
       <c r="O163" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>80</v>
@@ -22566,7 +22563,7 @@
         <v>80</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>91</v>
@@ -22584,7 +22581,7 @@
         <v>80</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>327</v>
@@ -22601,10 +22598,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22719,10 +22716,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22839,10 +22836,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22868,10 +22865,10 @@
         <v>250</v>
       </c>
       <c r="L166" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="M166" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="M166" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="N166" t="s" s="2">
         <v>253</v>
@@ -22959,13 +22956,13 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="B167" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="C167" t="s" s="2">
         <v>767</v>
-      </c>
-      <c r="B167" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="C167" t="s" s="2">
-        <v>768</v>
       </c>
       <c r="D167" t="s" s="2">
         <v>80</v>
@@ -23083,10 +23080,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -23201,10 +23198,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -23321,10 +23318,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23443,10 +23440,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23563,10 +23560,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23606,7 +23603,7 @@
       </c>
       <c r="Q172" s="2"/>
       <c r="R172" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="S172" t="s" s="2">
         <v>80</v>
@@ -23683,10 +23680,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23803,10 +23800,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23925,10 +23922,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -24047,10 +24044,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -24076,13 +24073,13 @@
         <v>419</v>
       </c>
       <c r="L176" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="M176" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="M176" t="s" s="2">
+      <c r="N176" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="N176" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>422</v>
@@ -24113,10 +24110,10 @@
         <v>215</v>
       </c>
       <c r="Y176" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="Z176" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="Z176" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="AA176" t="s" s="2">
         <v>80</v>
@@ -24132,7 +24129,7 @@
         <v>140</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>78</v>
@@ -24141,7 +24138,7 @@
         <v>91</v>
       </c>
       <c r="AI176" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AJ176" t="s" s="2">
         <v>103</v>
@@ -24150,7 +24147,7 @@
         <v>80</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AM176" t="s" s="2">
         <v>427</v>
@@ -24167,10 +24164,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -24285,10 +24282,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24405,10 +24402,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24431,19 +24428,19 @@
         <v>92</v>
       </c>
       <c r="K179" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="L179" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="L179" t="s" s="2">
+      <c r="M179" t="s" s="2">
         <v>677</v>
       </c>
-      <c r="M179" t="s" s="2">
+      <c r="N179" t="s" s="2">
         <v>678</v>
       </c>
-      <c r="N179" t="s" s="2">
+      <c r="O179" t="s" s="2">
         <v>679</v>
-      </c>
-      <c r="O179" t="s" s="2">
-        <v>680</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>80</v>
@@ -24492,7 +24489,7 @@
         <v>80</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>78</v>
@@ -24513,10 +24510,10 @@
         <v>80</v>
       </c>
       <c r="AM179" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AN179" t="s" s="2">
         <v>682</v>
-      </c>
-      <c r="AN179" t="s" s="2">
-        <v>683</v>
       </c>
       <c r="AO179" t="s" s="2">
         <v>80</v>
@@ -24527,10 +24524,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24556,20 +24553,20 @@
         <v>111</v>
       </c>
       <c r="L180" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="M180" t="s" s="2">
         <v>686</v>
-      </c>
-      <c r="M180" t="s" s="2">
-        <v>687</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="P180" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q180" t="s" s="2">
         <v>688</v>
-      </c>
-      <c r="P180" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q180" t="s" s="2">
-        <v>689</v>
       </c>
       <c r="R180" t="s" s="2">
         <v>80</v>
@@ -24593,28 +24590,28 @@
         <v>215</v>
       </c>
       <c r="Y180" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="Z180" t="s" s="2">
         <v>690</v>
       </c>
-      <c r="Z180" t="s" s="2">
+      <c r="AA180" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB180" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC180" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD180" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE180" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF180" t="s" s="2">
         <v>691</v>
-      </c>
-      <c r="AA180" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB180" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC180" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD180" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE180" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF180" t="s" s="2">
-        <v>692</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>78</v>
@@ -24635,10 +24632,10 @@
         <v>80</v>
       </c>
       <c r="AM180" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="AN180" t="s" s="2">
         <v>693</v>
-      </c>
-      <c r="AN180" t="s" s="2">
-        <v>694</v>
       </c>
       <c r="AO180" t="s" s="2">
         <v>80</v>
@@ -24649,10 +24646,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24678,14 +24675,14 @@
         <v>237</v>
       </c>
       <c r="L181" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="M181" t="s" s="2">
         <v>697</v>
-      </c>
-      <c r="M181" t="s" s="2">
-        <v>698</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P181" t="s" s="2">
         <v>80</v>
@@ -24734,7 +24731,7 @@
         <v>80</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>78</v>
@@ -24755,10 +24752,10 @@
         <v>80</v>
       </c>
       <c r="AM181" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="AN181" t="s" s="2">
         <v>701</v>
-      </c>
-      <c r="AN181" t="s" s="2">
-        <v>702</v>
       </c>
       <c r="AO181" t="s" s="2">
         <v>80</v>
@@ -24769,10 +24766,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -24798,14 +24795,14 @@
         <v>105</v>
       </c>
       <c r="L182" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="M182" t="s" s="2">
         <v>705</v>
-      </c>
-      <c r="M182" t="s" s="2">
-        <v>706</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="P182" t="s" s="2">
         <v>80</v>
@@ -24854,16 +24851,16 @@
         <v>80</v>
       </c>
       <c r="AF182" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="AG182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH182" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI182" t="s" s="2">
         <v>709</v>
-      </c>
-      <c r="AG182" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH182" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI182" t="s" s="2">
-        <v>710</v>
       </c>
       <c r="AJ182" t="s" s="2">
         <v>103</v>
@@ -24875,10 +24872,10 @@
         <v>80</v>
       </c>
       <c r="AM182" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AN182" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AO182" t="s" s="2">
         <v>80</v>
@@ -24889,10 +24886,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -24918,65 +24915,65 @@
         <v>111</v>
       </c>
       <c r="L183" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="M183" t="s" s="2">
         <v>786</v>
       </c>
-      <c r="M183" t="s" s="2">
-        <v>787</v>
-      </c>
       <c r="N183" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="O183" t="s" s="2">
         <v>715</v>
-      </c>
-      <c r="O183" t="s" s="2">
-        <v>716</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q183" s="2"/>
       <c r="R183" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="S183" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T183" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U183" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V183" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W183" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X183" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y183" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z183" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA183" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB183" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC183" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD183" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE183" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF183" t="s" s="2">
         <v>717</v>
-      </c>
-      <c r="S183" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T183" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U183" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V183" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W183" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X183" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y183" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z183" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA183" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB183" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC183" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD183" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE183" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF183" t="s" s="2">
-        <v>718</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>78</v>
@@ -24997,10 +24994,10 @@
         <v>80</v>
       </c>
       <c r="AM183" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AN183" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AO183" t="s" s="2">
         <v>80</v>
@@ -25011,10 +25008,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -25040,13 +25037,13 @@
         <v>223</v>
       </c>
       <c r="L184" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="M184" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="M184" t="s" s="2">
+      <c r="N184" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="N184" t="s" s="2">
-        <v>627</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>436</v>
@@ -25098,7 +25095,7 @@
         <v>80</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>78</v>
@@ -25107,7 +25104,7 @@
         <v>91</v>
       </c>
       <c r="AI184" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AJ184" t="s" s="2">
         <v>103</v>
@@ -25133,10 +25130,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -25220,7 +25217,7 @@
         <v>80</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>78</v>
@@ -25255,10 +25252,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25284,16 +25281,16 @@
         <v>81</v>
       </c>
       <c r="L186" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="M186" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="M186" t="s" s="2">
-        <v>632</v>
-      </c>
       <c r="N186" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="O186" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="O186" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>80</v>
@@ -25342,7 +25339,7 @@
         <v>80</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>78</v>
@@ -25363,10 +25360,10 @@
         <v>80</v>
       </c>
       <c r="AM186" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AN186" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="AN186" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="AO186" t="s" s="2">
         <v>80</v>
@@ -25377,13 +25374,13 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="B187" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="C187" t="s" s="2">
         <v>791</v>
-      </c>
-      <c r="B187" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="C187" t="s" s="2">
-        <v>792</v>
       </c>
       <c r="D187" t="s" s="2">
         <v>80</v>
@@ -25405,19 +25402,19 @@
         <v>92</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="O187" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="P187" t="s" s="2">
         <v>80</v>
@@ -25466,7 +25463,7 @@
         <v>80</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>78</v>
@@ -25478,19 +25475,19 @@
         <v>80</v>
       </c>
       <c r="AJ187" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AK187" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL187" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM187" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="AK187" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL187" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM187" t="s" s="2">
+      <c r="AN187" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="AN187" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="AO187" t="s" s="2">
         <v>80</v>
@@ -25501,10 +25498,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25619,10 +25616,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25739,14 +25736,14 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" t="s" s="2">
@@ -25768,10 +25765,10 @@
         <v>136</v>
       </c>
       <c r="L190" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M190" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="M190" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="N190" t="s" s="2">
         <v>180</v>
@@ -25826,7 +25823,7 @@
         <v>80</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>78</v>
@@ -25861,10 +25858,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -25890,16 +25887,16 @@
         <v>223</v>
       </c>
       <c r="L191" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M191" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="M191" t="s" s="2">
+      <c r="N191" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="N191" t="s" s="2">
+      <c r="O191" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="O191" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="P191" t="s" s="2">
         <v>80</v>
@@ -25948,7 +25945,7 @@
         <v>80</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>91</v>
@@ -25966,7 +25963,7 @@
         <v>80</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>327</v>
@@ -25983,10 +25980,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -26101,10 +26098,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -26221,10 +26218,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -26296,7 +26293,7 @@
         <v>80</v>
       </c>
       <c r="AB194" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AC194" s="2"/>
       <c r="AD194" t="s" s="2">
@@ -26341,13 +26338,13 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
+        <v>801</v>
+      </c>
+      <c r="B195" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="C195" t="s" s="2">
         <v>802</v>
-      </c>
-      <c r="B195" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="C195" t="s" s="2">
-        <v>803</v>
       </c>
       <c r="D195" t="s" s="2">
         <v>80</v>
@@ -26465,10 +26462,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -26583,10 +26580,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -26703,10 +26700,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -26748,7 +26745,7 @@
       </c>
       <c r="Q198" s="2"/>
       <c r="R198" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="S198" t="s" s="2">
         <v>80</v>
@@ -26825,10 +26822,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -26945,10 +26942,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -26988,7 +26985,7 @@
       </c>
       <c r="Q200" s="2"/>
       <c r="R200" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="S200" t="s" s="2">
         <v>80</v>
@@ -27065,10 +27062,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -27185,10 +27182,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -27307,10 +27304,10 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -27429,10 +27426,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -27458,13 +27455,13 @@
         <v>419</v>
       </c>
       <c r="L204" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="M204" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="M204" t="s" s="2">
+      <c r="N204" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="N204" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>422</v>
@@ -27495,37 +27492,37 @@
         <v>215</v>
       </c>
       <c r="Y204" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="Z204" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="Z204" t="s" s="2">
+      <c r="AA204" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB204" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC204" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD204" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE204" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF204" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AG204" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH204" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI204" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="AA204" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB204" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC204" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD204" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE204" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF204" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="AG204" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH204" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI204" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="AJ204" t="s" s="2">
         <v>103</v>
@@ -27534,7 +27531,7 @@
         <v>80</v>
       </c>
       <c r="AL204" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AM204" t="s" s="2">
         <v>427</v>
@@ -27551,10 +27548,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -27669,10 +27666,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -27789,10 +27786,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -27815,19 +27812,19 @@
         <v>92</v>
       </c>
       <c r="K207" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="L207" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="L207" t="s" s="2">
+      <c r="M207" t="s" s="2">
         <v>677</v>
       </c>
-      <c r="M207" t="s" s="2">
+      <c r="N207" t="s" s="2">
         <v>678</v>
       </c>
-      <c r="N207" t="s" s="2">
+      <c r="O207" t="s" s="2">
         <v>679</v>
-      </c>
-      <c r="O207" t="s" s="2">
-        <v>680</v>
       </c>
       <c r="P207" t="s" s="2">
         <v>80</v>
@@ -27876,7 +27873,7 @@
         <v>80</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>78</v>
@@ -27897,10 +27894,10 @@
         <v>80</v>
       </c>
       <c r="AM207" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AN207" t="s" s="2">
         <v>682</v>
-      </c>
-      <c r="AN207" t="s" s="2">
-        <v>683</v>
       </c>
       <c r="AO207" t="s" s="2">
         <v>80</v>
@@ -27911,10 +27908,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -27940,20 +27937,20 @@
         <v>111</v>
       </c>
       <c r="L208" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="M208" t="s" s="2">
         <v>686</v>
-      </c>
-      <c r="M208" t="s" s="2">
-        <v>687</v>
       </c>
       <c r="N208" s="2"/>
       <c r="O208" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="P208" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q208" t="s" s="2">
         <v>688</v>
-      </c>
-      <c r="P208" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q208" t="s" s="2">
-        <v>689</v>
       </c>
       <c r="R208" t="s" s="2">
         <v>80</v>
@@ -27977,28 +27974,28 @@
         <v>215</v>
       </c>
       <c r="Y208" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="Z208" t="s" s="2">
         <v>690</v>
       </c>
-      <c r="Z208" t="s" s="2">
+      <c r="AA208" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB208" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC208" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD208" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE208" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF208" t="s" s="2">
         <v>691</v>
-      </c>
-      <c r="AA208" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB208" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC208" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD208" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE208" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF208" t="s" s="2">
-        <v>692</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>78</v>
@@ -28019,10 +28016,10 @@
         <v>80</v>
       </c>
       <c r="AM208" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="AN208" t="s" s="2">
         <v>693</v>
-      </c>
-      <c r="AN208" t="s" s="2">
-        <v>694</v>
       </c>
       <c r="AO208" t="s" s="2">
         <v>80</v>
@@ -28033,10 +28030,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -28062,14 +28059,14 @@
         <v>237</v>
       </c>
       <c r="L209" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="M209" t="s" s="2">
         <v>697</v>
-      </c>
-      <c r="M209" t="s" s="2">
-        <v>698</v>
       </c>
       <c r="N209" s="2"/>
       <c r="O209" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>80</v>
@@ -28118,7 +28115,7 @@
         <v>80</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>78</v>
@@ -28139,10 +28136,10 @@
         <v>80</v>
       </c>
       <c r="AM209" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="AN209" t="s" s="2">
         <v>701</v>
-      </c>
-      <c r="AN209" t="s" s="2">
-        <v>702</v>
       </c>
       <c r="AO209" t="s" s="2">
         <v>80</v>
@@ -28153,10 +28150,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -28182,14 +28179,14 @@
         <v>105</v>
       </c>
       <c r="L210" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="M210" t="s" s="2">
         <v>705</v>
-      </c>
-      <c r="M210" t="s" s="2">
-        <v>706</v>
       </c>
       <c r="N210" s="2"/>
       <c r="O210" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="P210" t="s" s="2">
         <v>80</v>
@@ -28238,16 +28235,16 @@
         <v>80</v>
       </c>
       <c r="AF210" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="AG210" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH210" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI210" t="s" s="2">
         <v>709</v>
-      </c>
-      <c r="AG210" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH210" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI210" t="s" s="2">
-        <v>710</v>
       </c>
       <c r="AJ210" t="s" s="2">
         <v>103</v>
@@ -28259,10 +28256,10 @@
         <v>80</v>
       </c>
       <c r="AM210" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AN210" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AO210" t="s" s="2">
         <v>80</v>
@@ -28273,10 +28270,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -28302,65 +28299,65 @@
         <v>111</v>
       </c>
       <c r="L211" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="M211" t="s" s="2">
         <v>786</v>
       </c>
-      <c r="M211" t="s" s="2">
-        <v>787</v>
-      </c>
       <c r="N211" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="O211" t="s" s="2">
         <v>715</v>
-      </c>
-      <c r="O211" t="s" s="2">
-        <v>716</v>
       </c>
       <c r="P211" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q211" s="2"/>
       <c r="R211" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="S211" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T211" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U211" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V211" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W211" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X211" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y211" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z211" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA211" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB211" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC211" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD211" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE211" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF211" t="s" s="2">
         <v>717</v>
-      </c>
-      <c r="S211" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T211" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U211" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V211" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W211" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X211" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y211" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z211" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA211" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB211" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC211" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD211" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE211" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF211" t="s" s="2">
-        <v>718</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>78</v>
@@ -28381,10 +28378,10 @@
         <v>80</v>
       </c>
       <c r="AM211" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AN211" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AO211" t="s" s="2">
         <v>80</v>
@@ -28395,10 +28392,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -28424,13 +28421,13 @@
         <v>223</v>
       </c>
       <c r="L212" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="M212" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="M212" t="s" s="2">
+      <c r="N212" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="N212" t="s" s="2">
-        <v>627</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>436</v>
@@ -28482,7 +28479,7 @@
         <v>80</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>78</v>
@@ -28491,7 +28488,7 @@
         <v>91</v>
       </c>
       <c r="AI212" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AJ212" t="s" s="2">
         <v>103</v>
@@ -28517,10 +28514,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -28604,7 +28601,7 @@
         <v>80</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>78</v>
@@ -28639,10 +28636,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -28668,16 +28665,16 @@
         <v>81</v>
       </c>
       <c r="L214" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="M214" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="M214" t="s" s="2">
-        <v>632</v>
-      </c>
       <c r="N214" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="O214" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="O214" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="P214" t="s" s="2">
         <v>80</v>
@@ -28726,7 +28723,7 @@
         <v>80</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>78</v>
@@ -28747,10 +28744,10 @@
         <v>80</v>
       </c>
       <c r="AM214" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AN214" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="AN214" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="AO214" t="s" s="2">
         <v>80</v>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.0</t>
+    <t>0.6.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.1</t>
+    <t>0.6.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
@@ -15674,7 +15674,7 @@
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
-        <v>589</v>
+        <v>91</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>79</v>
@@ -16762,7 +16762,7 @@
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>91</v>
@@ -20024,7 +20024,7 @@
       </c>
       <c r="E142" s="2"/>
       <c r="F142" t="s" s="2">
-        <v>589</v>
+        <v>91</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>79</v>
@@ -21112,7 +21112,7 @@
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>91</v>
@@ -24374,7 +24374,7 @@
       </c>
       <c r="E178" s="2"/>
       <c r="F178" t="s" s="2">
-        <v>589</v>
+        <v>91</v>
       </c>
       <c r="G178" t="s" s="2">
         <v>79</v>
@@ -25462,7 +25462,7 @@
       </c>
       <c r="E187" s="2"/>
       <c r="F187" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G187" t="s" s="2">
         <v>91</v>
@@ -28724,7 +28724,7 @@
       </c>
       <c r="E214" s="2"/>
       <c r="F214" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G214" t="s" s="2">
         <v>79</v>
@@ -28846,7 +28846,7 @@
       </c>
       <c r="E215" s="2"/>
       <c r="F215" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G215" t="s" s="2">
         <v>91</v>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.2</t>
+    <t>0.7.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.1</t>
+    <t>0.7.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.4</t>
+    <t>0.7.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -13871,7 +13871,7 @@
         <v>80</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>216</v>
+        <v>323</v>
       </c>
       <c r="Y91" t="s" s="2">
         <v>595</v>
@@ -17377,7 +17377,7 @@
         <v>80</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>216</v>
+        <v>323</v>
       </c>
       <c r="Y120" t="s" s="2">
         <v>595</v>
@@ -21727,7 +21727,7 @@
         <v>80</v>
       </c>
       <c r="X156" t="s" s="2">
-        <v>216</v>
+        <v>323</v>
       </c>
       <c r="Y156" t="s" s="2">
         <v>595</v>
@@ -26077,7 +26077,7 @@
         <v>80</v>
       </c>
       <c r="X192" t="s" s="2">
-        <v>216</v>
+        <v>323</v>
       </c>
       <c r="Y192" t="s" s="2">
         <v>595</v>
@@ -29461,7 +29461,7 @@
         <v>80</v>
       </c>
       <c r="X220" t="s" s="2">
-        <v>216</v>
+        <v>323</v>
       </c>
       <c r="Y220" t="s" s="2">
         <v>595</v>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.5</t>
+    <t>0.7.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.6</t>
+    <t>0.7.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
@@ -2465,7 +2465,7 @@
     <t>Observation.component:MeanArterialPressure.code.coding:MAPSnomedCode.code</t>
   </si>
   <si>
-    <t>4491000202105</t>
+    <t>4501000202102</t>
   </si>
   <si>
     <t>Observation.component:MeanArterialPressure.code.coding:MAPSnomedCode.display</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
@@ -84,7 +84,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Base profile for Norwegian Vital Signs Observation Blood pressure information. The local measurement of arterial blood pressure, which is a surrogate for arterial pressure in the systemic circulation. Some content in this profile builds on the blood pressure arcetype: Blodtrykk, Publisert arketype [Internet]. openEHR Norge, Nasjonal IKT Clinical Knowledge Manager [sitert: 2024-12-02]. Hentet fra: https://arketyper.no/ckm/archetypes/1078.36.2165</t>
+    <t>Base profile for Norwegian Vital Signs Observation Blood pressure information. The local measurement of arterial blood pressure, which is a surrogate for arterial pressure in the systemic circulation. 
+ Some content in this profile builds on the blood pressure archetype: Blodtrykk, Publisert arketype [Internet]. openEHR Norge, Nasjonal IKT Clinical Knowledge Manager [sitert: 2024-12-02]. Hentet fra: https://arketyper.no/ckm/archetypes/1078.36.2165</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.8</t>
+    <t>0.8.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-05-01</t>
+    <t>2025-01-28</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Base profile for Norwegian Vital Signs Observation Blood pressure information. The local measurement of arterial blood pressure, which is a surrogate for arterial pressure in the systemic circulation.</t>
+    <t>Base profile for Norwegian Vital Signs Observation of Blood Pressure. To be used for recording an individual's systemic arterial blood pressure.
+It represents the local measurement of arterial blood pressure, serving as a surrogate for arterial pressure in the systemic circulation.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1529,7 +1530,7 @@
     <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ValueSet/NoDomainVitalSignObservationBloodPressureMeasurementMethod</t>
+    <t>http://hl7.no/fhir/ValueSet/NoDomainVitalSignsObservationBloodPressureMeasurementMethod</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -2974,7 +2975,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="86.9765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="87.93359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="26.1796875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.0</t>
+    <t>0.8.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.1</t>
+    <t>0.8.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.0</t>
+    <t>0.8.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8859" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8859" uniqueCount="840">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.2</t>
+    <t>0.8.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Base profile for Norwegian Vital Signs Observation of Blood Pressure. To be used for recording an individual's systemic arterial blood pressure.
+    <t>Domain profile for Norwegian Vital Signs Observation of Blood Pressure. To be used for recording an individual's systemic arterial blood pressure.
 It represents the local measurement of arterial blood pressure, serving as a surrogate for arterial pressure in the systemic circulation.</t>
   </si>
   <si>
@@ -1329,6 +1329,9 @@
 </t>
   </si>
   <si>
+    <t>Identifies the person or careteam that is responsible for the vital sign measurement.</t>
+  </si>
+  <si>
     <t>Observation.performer:organization</t>
   </si>
   <si>
@@ -1337,6 +1340,9 @@
   <si>
     <t xml:space="preserve">Reference(Organization|http://hl7.no/fhir/StructureDefinition/no-basis-Organization)
 </t>
+  </si>
+  <si>
+    <t>Identifies the Organization that is responsible for the vital sign measurement. In Norway this can be translated into the 'dataansvarlig virksomhet'.</t>
   </si>
   <si>
     <t>Observation.value[x]</t>
@@ -9533,7 +9539,7 @@
         <v>409</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -9621,13 +9627,13 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>407</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>84</v>
@@ -9649,13 +9655,13 @@
         <v>96</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>409</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -9743,10 +9749,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9769,19 +9775,19 @@
         <v>96</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>84</v>
@@ -9818,17 +9824,17 @@
         <v>84</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AC57" s="2"/>
       <c r="AD57" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>82</v>
@@ -9837,7 +9843,7 @@
         <v>95</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>107</v>
@@ -9846,30 +9852,30 @@
         <v>84</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>84</v>
@@ -9891,19 +9897,19 @@
         <v>96</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>84</v>
@@ -9952,7 +9958,7 @@
         <v>84</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>82</v>
@@ -9961,7 +9967,7 @@
         <v>95</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>107</v>
@@ -9970,27 +9976,27 @@
         <v>84</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -10016,16 +10022,16 @@
         <v>228</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>84</v>
@@ -10053,10 +10059,10 @@
         <v>327</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>84</v>
@@ -10074,7 +10080,7 @@
         <v>84</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>82</v>
@@ -10083,7 +10089,7 @@
         <v>95</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>107</v>
@@ -10098,7 +10104,7 @@
         <v>138</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>84</v>
@@ -10109,14 +10115,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -10138,16 +10144,16 @@
         <v>228</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>84</v>
@@ -10175,10 +10181,10 @@
         <v>327</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>84</v>
@@ -10196,7 +10202,7 @@
         <v>84</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>82</v>
@@ -10214,27 +10220,27 @@
         <v>84</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -10257,19 +10263,19 @@
         <v>84</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>84</v>
@@ -10318,7 +10324,7 @@
         <v>84</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>82</v>
@@ -10339,10 +10345,10 @@
         <v>84</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>84</v>
@@ -10353,10 +10359,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10382,13 +10388,13 @@
         <v>228</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -10418,7 +10424,7 @@
       </c>
       <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>84</v>
@@ -10436,7 +10442,7 @@
         <v>84</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>82</v>
@@ -10454,27 +10460,27 @@
         <v>84</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10589,10 +10595,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10709,10 +10715,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10776,7 +10782,7 @@
       </c>
       <c r="Y65" s="2"/>
       <c r="Z65" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>84</v>
@@ -10829,10 +10835,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10951,10 +10957,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10980,16 +10986,16 @@
         <v>228</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>84</v>
@@ -11018,7 +11024,7 @@
       </c>
       <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>84</v>
@@ -11036,7 +11042,7 @@
         <v>84</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>82</v>
@@ -11057,10 +11063,10 @@
         <v>84</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>84</v>
@@ -11071,10 +11077,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -11189,10 +11195,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -11309,10 +11315,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11376,7 +11382,7 @@
       </c>
       <c r="Y70" s="2"/>
       <c r="Z70" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>84</v>
@@ -11429,10 +11435,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11551,10 +11557,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11577,16 +11583,16 @@
         <v>84</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11636,7 +11642,7 @@
         <v>84</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>82</v>
@@ -11654,27 +11660,27 @@
         <v>84</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11697,16 +11703,16 @@
         <v>84</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11756,7 +11762,7 @@
         <v>84</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>82</v>
@@ -11774,27 +11780,27 @@
         <v>84</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11817,19 +11823,19 @@
         <v>84</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>84</v>
@@ -11878,7 +11884,7 @@
         <v>84</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>82</v>
@@ -11890,7 +11896,7 @@
         <v>84</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>84</v>
@@ -11899,10 +11905,10 @@
         <v>84</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>84</v>
@@ -11913,10 +11919,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -12031,10 +12037,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -12151,14 +12157,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -12180,10 +12186,10 @@
         <v>140</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="N77" t="s" s="2">
         <v>185</v>
@@ -12238,7 +12244,7 @@
         <v>84</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>82</v>
@@ -12273,10 +12279,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12299,13 +12305,13 @@
         <v>84</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -12356,7 +12362,7 @@
         <v>84</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>82</v>
@@ -12365,7 +12371,7 @@
         <v>95</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>107</v>
@@ -12377,10 +12383,10 @@
         <v>84</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>84</v>
@@ -12391,10 +12397,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12417,13 +12423,13 @@
         <v>84</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -12474,7 +12480,7 @@
         <v>84</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>82</v>
@@ -12483,7 +12489,7 @@
         <v>95</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>107</v>
@@ -12495,10 +12501,10 @@
         <v>84</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>84</v>
@@ -12509,10 +12515,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12538,16 +12544,16 @@
         <v>228</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>84</v>
@@ -12575,10 +12581,10 @@
         <v>119</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>84</v>
@@ -12596,7 +12602,7 @@
         <v>84</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>82</v>
@@ -12614,13 +12620,13 @@
         <v>84</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>84</v>
@@ -12631,10 +12637,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12660,16 +12666,16 @@
         <v>228</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>84</v>
@@ -12694,13 +12700,13 @@
         <v>84</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>84</v>
@@ -12718,7 +12724,7 @@
         <v>84</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>82</v>
@@ -12736,13 +12742,13 @@
         <v>84</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>84</v>
@@ -12753,10 +12759,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12779,17 +12785,17 @@
         <v>84</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>84</v>
@@ -12838,7 +12844,7 @@
         <v>84</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>82</v>
@@ -12862,7 +12868,7 @@
         <v>84</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>84</v>
@@ -12873,10 +12879,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12902,10 +12908,10 @@
         <v>242</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12956,7 +12962,7 @@
         <v>84</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>82</v>
@@ -12977,10 +12983,10 @@
         <v>84</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>84</v>
@@ -12991,10 +12997,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -13017,16 +13023,16 @@
         <v>96</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -13076,7 +13082,7 @@
         <v>84</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>82</v>
@@ -13097,10 +13103,10 @@
         <v>84</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>84</v>
@@ -13111,10 +13117,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -13137,16 +13143,16 @@
         <v>96</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -13196,7 +13202,7 @@
         <v>84</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>82</v>
@@ -13217,10 +13223,10 @@
         <v>84</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>84</v>
@@ -13231,10 +13237,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13242,7 +13248,7 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>83</v>
@@ -13257,19 +13263,19 @@
         <v>96</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>84</v>
@@ -13306,7 +13312,7 @@
         <v>84</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AC86" s="2"/>
       <c r="AD86" t="s" s="2">
@@ -13316,7 +13322,7 @@
         <v>144</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>82</v>
@@ -13328,7 +13334,7 @@
         <v>84</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>84</v>
@@ -13337,10 +13343,10 @@
         <v>84</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>84</v>
@@ -13351,10 +13357,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13469,10 +13475,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13589,14 +13595,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -13618,10 +13624,10 @@
         <v>140</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="N89" t="s" s="2">
         <v>185</v>
@@ -13676,7 +13682,7 @@
         <v>84</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>82</v>
@@ -13711,10 +13717,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13740,16 +13746,16 @@
         <v>228</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>84</v>
@@ -13798,7 +13804,7 @@
         <v>84</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>95</v>
@@ -13816,7 +13822,7 @@
         <v>84</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>332</v>
@@ -13833,10 +13839,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13859,19 +13865,19 @@
         <v>96</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>84</v>
@@ -13899,10 +13905,10 @@
         <v>327</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>84</v>
@@ -13920,7 +13926,7 @@
         <v>84</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>82</v>
@@ -13929,7 +13935,7 @@
         <v>95</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>107</v>
@@ -13938,27 +13944,27 @@
         <v>84</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13984,16 +13990,16 @@
         <v>228</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>84</v>
@@ -14021,10 +14027,10 @@
         <v>327</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>84</v>
@@ -14042,7 +14048,7 @@
         <v>84</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>82</v>
@@ -14051,7 +14057,7 @@
         <v>95</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>107</v>
@@ -14066,7 +14072,7 @@
         <v>138</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>84</v>
@@ -14077,14 +14083,14 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -14106,16 +14112,16 @@
         <v>228</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>84</v>
@@ -14143,10 +14149,10 @@
         <v>327</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>84</v>
@@ -14164,7 +14170,7 @@
         <v>84</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>82</v>
@@ -14182,27 +14188,27 @@
         <v>84</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -14228,16 +14234,16 @@
         <v>85</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>84</v>
@@ -14286,7 +14292,7 @@
         <v>84</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>82</v>
@@ -14307,10 +14313,10 @@
         <v>84</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>84</v>
@@ -14321,13 +14327,13 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>84</v>
@@ -14349,19 +14355,19 @@
         <v>96</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>84</v>
@@ -14410,7 +14416,7 @@
         <v>84</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>82</v>
@@ -14422,7 +14428,7 @@
         <v>84</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>84</v>
@@ -14431,10 +14437,10 @@
         <v>84</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>84</v>
@@ -14445,10 +14451,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14563,10 +14569,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14683,14 +14689,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -14712,10 +14718,10 @@
         <v>140</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="N98" t="s" s="2">
         <v>185</v>
@@ -14770,7 +14776,7 @@
         <v>84</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>82</v>
@@ -14805,14 +14811,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -14834,16 +14840,16 @@
         <v>228</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="N99" t="s" s="2">
         <v>325</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>84</v>
@@ -14892,7 +14898,7 @@
         <v>84</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>95</v>
@@ -14910,7 +14916,7 @@
         <v>84</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>332</v>
@@ -14927,10 +14933,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -15045,10 +15051,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -15165,10 +15171,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15194,10 +15200,10 @@
         <v>255</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="N102" t="s" s="2">
         <v>258</v>
@@ -15285,13 +15291,13 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>84</v>
@@ -15316,10 +15322,10 @@
         <v>255</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="N103" t="s" s="2">
         <v>258</v>
@@ -15409,10 +15415,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15527,10 +15533,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15647,10 +15653,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15769,10 +15775,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15889,10 +15895,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15932,7 +15938,7 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>84</v>
@@ -16009,10 +16015,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -16129,10 +16135,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16251,13 +16257,13 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D111" t="s" s="2">
         <v>84</v>
@@ -16282,10 +16288,10 @@
         <v>255</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="N111" t="s" s="2">
         <v>258</v>
@@ -16375,10 +16381,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16493,10 +16499,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16613,10 +16619,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16658,7 +16664,7 @@
       </c>
       <c r="Q114" s="2"/>
       <c r="R114" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="S114" t="s" s="2">
         <v>84</v>
@@ -16735,10 +16741,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16855,10 +16861,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16898,7 +16904,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>84</v>
@@ -16975,10 +16981,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -17095,10 +17101,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -17217,10 +17223,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17339,10 +17345,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17365,19 +17371,19 @@
         <v>96</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>84</v>
@@ -17405,10 +17411,10 @@
         <v>327</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>84</v>
@@ -17426,7 +17432,7 @@
         <v>84</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>82</v>
@@ -17435,7 +17441,7 @@
         <v>95</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>107</v>
@@ -17444,27 +17450,27 @@
         <v>84</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP120" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17579,10 +17585,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17699,10 +17705,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17725,19 +17731,19 @@
         <v>96</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>84</v>
@@ -17786,7 +17792,7 @@
         <v>84</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>82</v>
@@ -17807,10 +17813,10 @@
         <v>84</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>84</v>
@@ -17821,10 +17827,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17850,20 +17856,20 @@
         <v>115</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q124" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="R124" t="s" s="2">
         <v>84</v>
@@ -17887,10 +17893,10 @@
         <v>220</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>84</v>
@@ -17908,7 +17914,7 @@
         <v>84</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>82</v>
@@ -17929,10 +17935,10 @@
         <v>84</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>84</v>
@@ -17943,10 +17949,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17972,14 +17978,14 @@
         <v>242</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>84</v>
@@ -18028,7 +18034,7 @@
         <v>84</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>82</v>
@@ -18049,10 +18055,10 @@
         <v>84</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>84</v>
@@ -18063,10 +18069,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -18092,21 +18098,21 @@
         <v>109</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>84</v>
@@ -18148,7 +18154,7 @@
         <v>84</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>82</v>
@@ -18157,7 +18163,7 @@
         <v>95</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>107</v>
@@ -18169,10 +18175,10 @@
         <v>84</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>84</v>
@@ -18183,10 +18189,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18212,23 +18218,23 @@
         <v>115</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q127" s="2"/>
       <c r="R127" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="S127" t="s" s="2">
         <v>84</v>
@@ -18270,7 +18276,7 @@
         <v>84</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>82</v>
@@ -18291,10 +18297,10 @@
         <v>84</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>84</v>
@@ -18305,10 +18311,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18334,16 +18340,16 @@
         <v>228</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>84</v>
@@ -18371,10 +18377,10 @@
         <v>327</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>84</v>
@@ -18392,7 +18398,7 @@
         <v>84</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>82</v>
@@ -18401,7 +18407,7 @@
         <v>95</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>107</v>
@@ -18416,7 +18422,7 @@
         <v>138</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>84</v>
@@ -18427,14 +18433,14 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
@@ -18456,16 +18462,16 @@
         <v>228</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>84</v>
@@ -18493,10 +18499,10 @@
         <v>327</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Z129" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>84</v>
@@ -18514,7 +18520,7 @@
         <v>84</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>82</v>
@@ -18532,27 +18538,27 @@
         <v>84</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP129" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18578,16 +18584,16 @@
         <v>85</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>84</v>
@@ -18636,7 +18642,7 @@
         <v>84</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>82</v>
@@ -18657,10 +18663,10 @@
         <v>84</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>84</v>
@@ -18671,13 +18677,13 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D131" t="s" s="2">
         <v>84</v>
@@ -18699,19 +18705,19 @@
         <v>96</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>84</v>
@@ -18760,7 +18766,7 @@
         <v>84</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>82</v>
@@ -18772,7 +18778,7 @@
         <v>84</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>84</v>
@@ -18781,10 +18787,10 @@
         <v>84</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AO131" t="s" s="2">
         <v>84</v>
@@ -18795,10 +18801,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18913,10 +18919,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -19033,14 +19039,14 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
@@ -19062,10 +19068,10 @@
         <v>140</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="N134" t="s" s="2">
         <v>185</v>
@@ -19120,7 +19126,7 @@
         <v>84</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>82</v>
@@ -19155,10 +19161,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -19184,16 +19190,16 @@
         <v>228</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="N135" t="s" s="2">
         <v>325</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>84</v>
@@ -19242,7 +19248,7 @@
         <v>84</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>95</v>
@@ -19260,7 +19266,7 @@
         <v>84</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>332</v>
@@ -19277,10 +19283,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19395,10 +19401,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19515,10 +19521,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19544,10 +19550,10 @@
         <v>255</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="N138" t="s" s="2">
         <v>258</v>
@@ -19635,13 +19641,13 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="D139" t="s" s="2">
         <v>84</v>
@@ -19666,10 +19672,10 @@
         <v>255</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="N139" t="s" s="2">
         <v>258</v>
@@ -19759,10 +19765,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19877,10 +19883,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19997,10 +20003,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -20119,10 +20125,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20239,10 +20245,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20282,7 +20288,7 @@
       </c>
       <c r="Q144" s="2"/>
       <c r="R144" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="S144" t="s" s="2">
         <v>84</v>
@@ -20359,10 +20365,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20479,10 +20485,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20601,13 +20607,13 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="D147" t="s" s="2">
         <v>84</v>
@@ -20632,10 +20638,10 @@
         <v>255</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="N147" t="s" s="2">
         <v>258</v>
@@ -20725,10 +20731,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20843,10 +20849,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20963,10 +20969,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -21008,7 +21014,7 @@
       </c>
       <c r="Q150" s="2"/>
       <c r="R150" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="S150" t="s" s="2">
         <v>84</v>
@@ -21085,10 +21091,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21205,10 +21211,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21248,7 +21254,7 @@
       </c>
       <c r="Q152" s="2"/>
       <c r="R152" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="S152" t="s" s="2">
         <v>84</v>
@@ -21325,10 +21331,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21445,10 +21451,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21567,10 +21573,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21689,10 +21695,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21715,19 +21721,19 @@
         <v>96</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="O156" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>84</v>
@@ -21755,10 +21761,10 @@
         <v>327</v>
       </c>
       <c r="Y156" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="Z156" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AA156" t="s" s="2">
         <v>84</v>
@@ -21776,7 +21782,7 @@
         <v>84</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>82</v>
@@ -21785,7 +21791,7 @@
         <v>95</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>107</v>
@@ -21794,27 +21800,27 @@
         <v>84</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AN156" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AO156" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP156" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21929,10 +21935,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -22049,10 +22055,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -22075,19 +22081,19 @@
         <v>96</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="O159" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>84</v>
@@ -22136,7 +22142,7 @@
         <v>84</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>82</v>
@@ -22157,10 +22163,10 @@
         <v>84</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="AN159" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="AO159" t="s" s="2">
         <v>84</v>
@@ -22171,10 +22177,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22200,20 +22206,20 @@
         <v>115</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q160" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="R160" t="s" s="2">
         <v>84</v>
@@ -22237,10 +22243,10 @@
         <v>220</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="Z160" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="AA160" t="s" s="2">
         <v>84</v>
@@ -22258,7 +22264,7 @@
         <v>84</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>82</v>
@@ -22279,10 +22285,10 @@
         <v>84</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AN160" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="AO160" t="s" s="2">
         <v>84</v>
@@ -22293,10 +22299,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22322,14 +22328,14 @@
         <v>242</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>84</v>
@@ -22378,7 +22384,7 @@
         <v>84</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>82</v>
@@ -22399,10 +22405,10 @@
         <v>84</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AN161" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="AO161" t="s" s="2">
         <v>84</v>
@@ -22413,10 +22419,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22442,21 +22448,21 @@
         <v>109</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q162" s="2"/>
       <c r="R162" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="S162" t="s" s="2">
         <v>84</v>
@@ -22498,7 +22504,7 @@
         <v>84</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>82</v>
@@ -22507,7 +22513,7 @@
         <v>95</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>107</v>
@@ -22519,10 +22525,10 @@
         <v>84</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AN162" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="AO162" t="s" s="2">
         <v>84</v>
@@ -22533,10 +22539,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22562,23 +22568,23 @@
         <v>115</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="O163" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q163" s="2"/>
       <c r="R163" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="S163" t="s" s="2">
         <v>84</v>
@@ -22620,7 +22626,7 @@
         <v>84</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>82</v>
@@ -22641,10 +22647,10 @@
         <v>84</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AN163" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AO163" t="s" s="2">
         <v>84</v>
@@ -22655,10 +22661,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22684,16 +22690,16 @@
         <v>228</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="O164" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>84</v>
@@ -22721,10 +22727,10 @@
         <v>327</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Z164" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AA164" t="s" s="2">
         <v>84</v>
@@ -22742,7 +22748,7 @@
         <v>84</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>82</v>
@@ -22751,7 +22757,7 @@
         <v>95</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>107</v>
@@ -22766,7 +22772,7 @@
         <v>138</v>
       </c>
       <c r="AN164" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AO164" t="s" s="2">
         <v>84</v>
@@ -22777,14 +22783,14 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" t="s" s="2">
@@ -22806,16 +22812,16 @@
         <v>228</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O165" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="P165" t="s" s="2">
         <v>84</v>
@@ -22843,10 +22849,10 @@
         <v>327</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Z165" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AA165" t="s" s="2">
         <v>84</v>
@@ -22864,7 +22870,7 @@
         <v>84</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>82</v>
@@ -22882,27 +22888,27 @@
         <v>84</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AN165" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AO165" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP165" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22928,16 +22934,16 @@
         <v>85</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="O166" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>84</v>
@@ -22986,7 +22992,7 @@
         <v>84</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>82</v>
@@ -23007,10 +23013,10 @@
         <v>84</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AN166" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AO166" t="s" s="2">
         <v>84</v>
@@ -23021,13 +23027,13 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="D167" t="s" s="2">
         <v>84</v>
@@ -23049,19 +23055,19 @@
         <v>96</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="O167" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>84</v>
@@ -23110,7 +23116,7 @@
         <v>84</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>82</v>
@@ -23122,7 +23128,7 @@
         <v>84</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AK167" t="s" s="2">
         <v>84</v>
@@ -23131,10 +23137,10 @@
         <v>84</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AN167" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AO167" t="s" s="2">
         <v>84</v>
@@ -23145,10 +23151,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -23263,10 +23269,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -23383,14 +23389,14 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" t="s" s="2">
@@ -23412,10 +23418,10 @@
         <v>140</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="N170" t="s" s="2">
         <v>185</v>
@@ -23470,7 +23476,7 @@
         <v>84</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>82</v>
@@ -23505,14 +23511,14 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" t="s" s="2">
@@ -23534,16 +23540,16 @@
         <v>228</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="N171" t="s" s="2">
         <v>325</v>
       </c>
       <c r="O171" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>84</v>
@@ -23592,7 +23598,7 @@
         <v>84</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>95</v>
@@ -23610,7 +23616,7 @@
         <v>84</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="AM171" t="s" s="2">
         <v>332</v>
@@ -23627,10 +23633,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23745,10 +23751,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23865,10 +23871,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23894,10 +23900,10 @@
         <v>255</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="N174" t="s" s="2">
         <v>258</v>
@@ -23985,13 +23991,13 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="D175" t="s" s="2">
         <v>84</v>
@@ -24016,10 +24022,10 @@
         <v>255</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="N175" t="s" s="2">
         <v>258</v>
@@ -24109,10 +24115,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -24227,10 +24233,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -24347,10 +24353,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24469,10 +24475,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24589,10 +24595,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24632,7 +24638,7 @@
       </c>
       <c r="Q180" s="2"/>
       <c r="R180" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="S180" t="s" s="2">
         <v>84</v>
@@ -24709,10 +24715,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24829,10 +24835,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -24951,13 +24957,13 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="D183" t="s" s="2">
         <v>84</v>
@@ -24982,10 +24988,10 @@
         <v>255</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="N183" t="s" s="2">
         <v>258</v>
@@ -25075,10 +25081,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -25193,10 +25199,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -25313,10 +25319,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25358,7 +25364,7 @@
       </c>
       <c r="Q186" s="2"/>
       <c r="R186" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="S186" t="s" s="2">
         <v>84</v>
@@ -25435,10 +25441,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25555,10 +25561,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25598,7 +25604,7 @@
       </c>
       <c r="Q188" s="2"/>
       <c r="R188" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="S188" t="s" s="2">
         <v>84</v>
@@ -25675,10 +25681,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25795,10 +25801,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -25917,10 +25923,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -26039,10 +26045,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -26065,19 +26071,19 @@
         <v>96</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="O192" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P192" t="s" s="2">
         <v>84</v>
@@ -26105,10 +26111,10 @@
         <v>327</v>
       </c>
       <c r="Y192" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="Z192" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AA192" t="s" s="2">
         <v>84</v>
@@ -26126,7 +26132,7 @@
         <v>84</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>82</v>
@@ -26135,7 +26141,7 @@
         <v>95</v>
       </c>
       <c r="AI192" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AJ192" t="s" s="2">
         <v>107</v>
@@ -26144,27 +26150,27 @@
         <v>84</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AM192" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AN192" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AO192" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP192" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -26279,10 +26285,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -26399,10 +26405,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -26425,19 +26431,19 @@
         <v>96</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="O195" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="P195" t="s" s="2">
         <v>84</v>
@@ -26486,7 +26492,7 @@
         <v>84</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>82</v>
@@ -26507,10 +26513,10 @@
         <v>84</v>
       </c>
       <c r="AM195" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="AN195" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="AO195" t="s" s="2">
         <v>84</v>
@@ -26521,10 +26527,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -26550,20 +26556,20 @@
         <v>115</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="N196" s="2"/>
       <c r="O196" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="P196" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q196" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="R196" t="s" s="2">
         <v>84</v>
@@ -26587,10 +26593,10 @@
         <v>220</v>
       </c>
       <c r="Y196" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="Z196" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="AA196" t="s" s="2">
         <v>84</v>
@@ -26608,7 +26614,7 @@
         <v>84</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>82</v>
@@ -26629,10 +26635,10 @@
         <v>84</v>
       </c>
       <c r="AM196" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AN196" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="AO196" t="s" s="2">
         <v>84</v>
@@ -26643,10 +26649,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -26672,14 +26678,14 @@
         <v>242</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="P197" t="s" s="2">
         <v>84</v>
@@ -26728,7 +26734,7 @@
         <v>84</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>82</v>
@@ -26749,10 +26755,10 @@
         <v>84</v>
       </c>
       <c r="AM197" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AN197" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="AO197" t="s" s="2">
         <v>84</v>
@@ -26763,10 +26769,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -26792,21 +26798,21 @@
         <v>109</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="P198" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q198" s="2"/>
       <c r="R198" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="S198" t="s" s="2">
         <v>84</v>
@@ -26848,7 +26854,7 @@
         <v>84</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>82</v>
@@ -26857,7 +26863,7 @@
         <v>95</v>
       </c>
       <c r="AI198" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="AJ198" t="s" s="2">
         <v>107</v>
@@ -26869,10 +26875,10 @@
         <v>84</v>
       </c>
       <c r="AM198" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AN198" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="AO198" t="s" s="2">
         <v>84</v>
@@ -26883,10 +26889,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -26912,23 +26918,23 @@
         <v>115</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="O199" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="P199" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q199" s="2"/>
       <c r="R199" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="S199" t="s" s="2">
         <v>84</v>
@@ -26970,7 +26976,7 @@
         <v>84</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>82</v>
@@ -26991,10 +26997,10 @@
         <v>84</v>
       </c>
       <c r="AM199" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AN199" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AO199" t="s" s="2">
         <v>84</v>
@@ -27005,10 +27011,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -27034,16 +27040,16 @@
         <v>228</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="O200" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="P200" t="s" s="2">
         <v>84</v>
@@ -27071,10 +27077,10 @@
         <v>327</v>
       </c>
       <c r="Y200" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Z200" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AA200" t="s" s="2">
         <v>84</v>
@@ -27092,7 +27098,7 @@
         <v>84</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>82</v>
@@ -27101,7 +27107,7 @@
         <v>95</v>
       </c>
       <c r="AI200" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AJ200" t="s" s="2">
         <v>107</v>
@@ -27116,7 +27122,7 @@
         <v>138</v>
       </c>
       <c r="AN200" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AO200" t="s" s="2">
         <v>84</v>
@@ -27127,14 +27133,14 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E201" s="2"/>
       <c r="F201" t="s" s="2">
@@ -27156,16 +27162,16 @@
         <v>228</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O201" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="P201" t="s" s="2">
         <v>84</v>
@@ -27193,10 +27199,10 @@
         <v>327</v>
       </c>
       <c r="Y201" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Z201" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AA201" t="s" s="2">
         <v>84</v>
@@ -27214,7 +27220,7 @@
         <v>84</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>82</v>
@@ -27232,27 +27238,27 @@
         <v>84</v>
       </c>
       <c r="AL201" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AM201" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AN201" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AO201" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP201" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -27278,16 +27284,16 @@
         <v>85</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="O202" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="P202" t="s" s="2">
         <v>84</v>
@@ -27336,7 +27342,7 @@
         <v>84</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>82</v>
@@ -27357,10 +27363,10 @@
         <v>84</v>
       </c>
       <c r="AM202" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AN202" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AO202" t="s" s="2">
         <v>84</v>
@@ -27371,13 +27377,13 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D203" t="s" s="2">
         <v>84</v>
@@ -27399,19 +27405,19 @@
         <v>96</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="O203" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="P203" t="s" s="2">
         <v>84</v>
@@ -27460,7 +27466,7 @@
         <v>84</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>82</v>
@@ -27472,7 +27478,7 @@
         <v>84</v>
       </c>
       <c r="AJ203" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AK203" t="s" s="2">
         <v>84</v>
@@ -27481,10 +27487,10 @@
         <v>84</v>
       </c>
       <c r="AM203" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AN203" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AO203" t="s" s="2">
         <v>84</v>
@@ -27495,10 +27501,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -27613,10 +27619,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -27733,14 +27739,14 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E206" s="2"/>
       <c r="F206" t="s" s="2">
@@ -27762,10 +27768,10 @@
         <v>140</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="N206" t="s" s="2">
         <v>185</v>
@@ -27820,7 +27826,7 @@
         <v>84</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>82</v>
@@ -27855,10 +27861,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -27884,16 +27890,16 @@
         <v>228</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="O207" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="P207" t="s" s="2">
         <v>84</v>
@@ -27942,7 +27948,7 @@
         <v>84</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>95</v>
@@ -27960,7 +27966,7 @@
         <v>84</v>
       </c>
       <c r="AL207" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="AM207" t="s" s="2">
         <v>332</v>
@@ -27977,10 +27983,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -28095,10 +28101,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -28215,10 +28221,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -28290,7 +28296,7 @@
         <v>84</v>
       </c>
       <c r="AB210" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="AC210" s="2"/>
       <c r="AD210" t="s" s="2">
@@ -28335,13 +28341,13 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="D211" t="s" s="2">
         <v>84</v>
@@ -28459,10 +28465,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -28577,10 +28583,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -28697,10 +28703,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -28742,7 +28748,7 @@
       </c>
       <c r="Q214" s="2"/>
       <c r="R214" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="S214" t="s" s="2">
         <v>84</v>
@@ -28819,10 +28825,10 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -28939,10 +28945,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -28982,7 +28988,7 @@
       </c>
       <c r="Q216" s="2"/>
       <c r="R216" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="S216" t="s" s="2">
         <v>84</v>
@@ -29059,10 +29065,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -29179,10 +29185,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -29301,10 +29307,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -29423,10 +29429,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -29449,19 +29455,19 @@
         <v>96</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="O220" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P220" t="s" s="2">
         <v>84</v>
@@ -29489,10 +29495,10 @@
         <v>327</v>
       </c>
       <c r="Y220" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="Z220" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AA220" t="s" s="2">
         <v>84</v>
@@ -29510,7 +29516,7 @@
         <v>84</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>82</v>
@@ -29519,7 +29525,7 @@
         <v>95</v>
       </c>
       <c r="AI220" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AJ220" t="s" s="2">
         <v>107</v>
@@ -29528,27 +29534,27 @@
         <v>84</v>
       </c>
       <c r="AL220" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AM220" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AN220" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AO220" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP220" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -29663,10 +29669,10 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -29783,10 +29789,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -29809,19 +29815,19 @@
         <v>96</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="O223" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="P223" t="s" s="2">
         <v>84</v>
@@ -29870,7 +29876,7 @@
         <v>84</v>
       </c>
       <c r="AF223" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="AG223" t="s" s="2">
         <v>82</v>
@@ -29891,10 +29897,10 @@
         <v>84</v>
       </c>
       <c r="AM223" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="AN223" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="AO223" t="s" s="2">
         <v>84</v>
@@ -29905,10 +29911,10 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -29934,20 +29940,20 @@
         <v>115</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="N224" s="2"/>
       <c r="O224" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="P224" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q224" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="R224" t="s" s="2">
         <v>84</v>
@@ -29971,10 +29977,10 @@
         <v>220</v>
       </c>
       <c r="Y224" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="Z224" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="AA224" t="s" s="2">
         <v>84</v>
@@ -29992,7 +29998,7 @@
         <v>84</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="AG224" t="s" s="2">
         <v>82</v>
@@ -30013,10 +30019,10 @@
         <v>84</v>
       </c>
       <c r="AM224" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AN224" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="AO224" t="s" s="2">
         <v>84</v>
@@ -30027,10 +30033,10 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -30056,14 +30062,14 @@
         <v>242</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="P225" t="s" s="2">
         <v>84</v>
@@ -30112,7 +30118,7 @@
         <v>84</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="AG225" t="s" s="2">
         <v>82</v>
@@ -30133,10 +30139,10 @@
         <v>84</v>
       </c>
       <c r="AM225" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AN225" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="AO225" t="s" s="2">
         <v>84</v>
@@ -30147,10 +30153,10 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -30176,21 +30182,21 @@
         <v>109</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="N226" s="2"/>
       <c r="O226" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="P226" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q226" s="2"/>
       <c r="R226" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="S226" t="s" s="2">
         <v>84</v>
@@ -30232,7 +30238,7 @@
         <v>84</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>82</v>
@@ -30241,7 +30247,7 @@
         <v>95</v>
       </c>
       <c r="AI226" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="AJ226" t="s" s="2">
         <v>107</v>
@@ -30253,10 +30259,10 @@
         <v>84</v>
       </c>
       <c r="AM226" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AN226" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="AO226" t="s" s="2">
         <v>84</v>
@@ -30267,10 +30273,10 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -30296,23 +30302,23 @@
         <v>115</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="O227" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="P227" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q227" s="2"/>
       <c r="R227" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="S227" t="s" s="2">
         <v>84</v>
@@ -30354,7 +30360,7 @@
         <v>84</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="AG227" t="s" s="2">
         <v>82</v>
@@ -30375,10 +30381,10 @@
         <v>84</v>
       </c>
       <c r="AM227" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AN227" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AO227" t="s" s="2">
         <v>84</v>
@@ -30389,10 +30395,10 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -30418,16 +30424,16 @@
         <v>228</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="O228" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="P228" t="s" s="2">
         <v>84</v>
@@ -30455,10 +30461,10 @@
         <v>327</v>
       </c>
       <c r="Y228" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Z228" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AA228" t="s" s="2">
         <v>84</v>
@@ -30476,7 +30482,7 @@
         <v>84</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="AG228" t="s" s="2">
         <v>82</v>
@@ -30485,7 +30491,7 @@
         <v>95</v>
       </c>
       <c r="AI228" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AJ228" t="s" s="2">
         <v>107</v>
@@ -30500,7 +30506,7 @@
         <v>138</v>
       </c>
       <c r="AN228" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AO228" t="s" s="2">
         <v>84</v>
@@ -30511,14 +30517,14 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E229" s="2"/>
       <c r="F229" t="s" s="2">
@@ -30540,16 +30546,16 @@
         <v>228</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="N229" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O229" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="P229" t="s" s="2">
         <v>84</v>
@@ -30577,10 +30583,10 @@
         <v>327</v>
       </c>
       <c r="Y229" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Z229" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AA229" t="s" s="2">
         <v>84</v>
@@ -30598,7 +30604,7 @@
         <v>84</v>
       </c>
       <c r="AF229" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AG229" t="s" s="2">
         <v>82</v>
@@ -30616,27 +30622,27 @@
         <v>84</v>
       </c>
       <c r="AL229" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AM229" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AN229" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AO229" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP229" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -30662,16 +30668,16 @@
         <v>85</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="O230" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="P230" t="s" s="2">
         <v>84</v>
@@ -30720,7 +30726,7 @@
         <v>84</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AG230" t="s" s="2">
         <v>82</v>
@@ -30741,10 +30747,10 @@
         <v>84</v>
       </c>
       <c r="AM230" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AN230" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AO230" t="s" s="2">
         <v>84</v>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBloodpressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.3</t>
+    <t>0.8.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -2956,17 +2956,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="84.48828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="47.40625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.73046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="72.43359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.64453125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="179.23828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="153.6640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2975,28 +2975,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="87.93359375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="26.1796875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="75.38671875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.4453125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
